--- a/praca/Wyniki.xlsx
+++ b/praca/Wyniki.xlsx
@@ -14,8 +14,10 @@
   <definedNames>
     <definedName name="cuda_vienna_0.01" localSheetId="0">Sheet1!$A$2:$C$242</definedName>
     <definedName name="cuda_vienna_0.1_1" localSheetId="0">Sheet1!$D$2:$F$242</definedName>
+    <definedName name="cuda_wal_1" localSheetId="0">Sheet1!$O$42:$O$108</definedName>
     <definedName name="intel_vienna_0.001" localSheetId="0">Sheet1!$G$2:$I$242</definedName>
     <definedName name="intel_vienna_0.1" localSheetId="0">Sheet1!$J$2:$L$242</definedName>
+    <definedName name="intel_wal_1" localSheetId="0">Sheet1!$P$42:$P$108</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -39,7 +41,14 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="intel_vienna_0.001" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="3" name="cuda_wal" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Mateusz\Desktop\output\cuda_wal.txt">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="intel_vienna_0.001" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Mateusz\Desktop\output\intel_vienna_0.001.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
@@ -47,10 +56,17 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="intel_vienna_0.1" type="6" refreshedVersion="4" background="1" saveData="1">
+  <connection id="5" name="intel_vienna_0.1" type="6" refreshedVersion="4" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\Mateusz\Desktop\output\intel_vienna_0.1.txt" space="1" consecutive="1">
       <textFields count="2">
         <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="6" name="intel_wal" type="6" refreshedVersion="4" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\Mateusz\Desktop\output\intel_wal.txt">
+      <textFields>
         <textField/>
       </textFields>
     </textPr>
@@ -59,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="30">
   <si>
     <t>Macierz</t>
   </si>
@@ -140,6 +156,15 @@
   </si>
   <si>
     <t>Tesla M2090</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Cuda</t>
+  </si>
+  <si>
+    <t>Pawła</t>
   </si>
 </sst>
 </file>
@@ -530,11 +555,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="47071232"/>
-        <c:axId val="47072768"/>
+        <c:axId val="153064960"/>
+        <c:axId val="153066880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47071232"/>
+        <c:axId val="153064960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -567,7 +592,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47072768"/>
+        <c:crossAx val="153066880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -575,7 +600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47072768"/>
+        <c:axId val="153066880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47071232"/>
+        <c:crossAx val="153064960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -825,11 +850,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44139648"/>
-        <c:axId val="44141184"/>
+        <c:axId val="169300736"/>
+        <c:axId val="169302656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44139648"/>
+        <c:axId val="169300736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +887,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44141184"/>
+        <c:crossAx val="169302656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -870,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44141184"/>
+        <c:axId val="169302656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44139648"/>
+        <c:crossAx val="169300736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1120,11 +1145,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="58143104"/>
-        <c:axId val="58144640"/>
+        <c:axId val="169345024"/>
+        <c:axId val="169346944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58143104"/>
+        <c:axId val="169345024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1178,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58144640"/>
+        <c:crossAx val="169346944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1161,7 +1186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58144640"/>
+        <c:axId val="169346944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58143104"/>
+        <c:crossAx val="169345024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,11 +1401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44740992"/>
-        <c:axId val="44742528"/>
+        <c:axId val="169364480"/>
+        <c:axId val="169383040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44740992"/>
+        <c:axId val="169364480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,7 +1437,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44742528"/>
+        <c:crossAx val="169383040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1420,7 +1445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44742528"/>
+        <c:axId val="169383040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +1480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44740992"/>
+        <c:crossAx val="169364480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1491,6 +1516,33 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>LU-LowerTag</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.36224002169664088"/>
+          <c:y val="2.9363777121995317E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1619,20 +1671,40 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="58138624"/>
-        <c:axId val="62161664"/>
+        <c:axId val="169816064"/>
+        <c:axId val="169817600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58138624"/>
+        <c:axId val="169816064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rozmiar Macierzy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62161664"/>
+        <c:crossAx val="169817600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,18 +1712,38 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62161664"/>
+        <c:axId val="169817600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58138624"/>
+        <c:crossAx val="169816064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1687,6 +1779,26 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>MultiFrontal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1694,6 +1806,118 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Intel Xeon X5650</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet1!$R$27:$R$29,Sheet1!$R$32:$R$34)</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100 x 0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500 x 0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000 x 0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100 x 0.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500 x 0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000 x0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$T$27:$T$29,Sheet1!$T$32:$T$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5937319999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5313759999999993E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1763466E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.453418E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8513340000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2596840000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tesla M2090</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$S$27:$S$29,Sheet1!$S$32:$S$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.5032319999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.492148E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.709238000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4759039999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4926590000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.709412E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1703,20 +1927,40 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="162055680"/>
-        <c:axId val="162057216"/>
+        <c:axId val="169837312"/>
+        <c:axId val="169838848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="162055680"/>
+        <c:axId val="169837312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Rozmiar Macierzy</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162057216"/>
+        <c:crossAx val="169838848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,18 +1968,42 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162057216"/>
+        <c:axId val="169838848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="162055680"/>
+        <c:crossAx val="169837312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1943,11 +2211,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel_vienna_0.1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel_wal_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel_vienna_0.001" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cuda_wal_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1956,6 +2224,14 @@
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cuda_vienna_0.01" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel_vienna_0.1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel_vienna_0.001" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2247,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2265,8 +2541,8 @@
     <col min="10" max="10" width="1.81640625" customWidth="1"/>
     <col min="11" max="11" width="14.81640625" customWidth="1"/>
     <col min="12" max="12" width="5.81640625" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" customWidth="1"/>
+    <col min="15" max="16" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3498,13 +3774,13 @@
       <c r="R27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S27" s="3" t="e">
-        <f>AVERAGE(AG5:AG20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T27" s="3" t="e">
-        <f t="shared" ref="T27:T36" si="0">AVERAGE(AH5:AH20)</f>
-        <v>#DIV/0!</v>
+      <c r="S27" s="3">
+        <f>AVERAGE(O42:O51)</f>
+        <v>2.5032319999999995E-4</v>
+      </c>
+      <c r="T27" s="3">
+        <f>AVERAGE(P42:P51)</f>
+        <v>1.5937319999999999E-4</v>
       </c>
       <c r="U27" s="8"/>
     </row>
@@ -3548,13 +3824,13 @@
       <c r="R28" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="3" t="e">
-        <f t="shared" ref="S28:S36" si="1">AVERAGE(AG6:AG21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T28" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="S28" s="3">
+        <f>AVERAGE(O64:O73)</f>
+        <v>1.492148E-3</v>
+      </c>
+      <c r="T28" s="3">
+        <f>AVERAGE(P64:P73)</f>
+        <v>4.5313759999999993E-4</v>
       </c>
       <c r="U28" s="8"/>
     </row>
@@ -3598,13 +3874,13 @@
       <c r="R29" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S29" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T29" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="S29" s="3">
+        <f>AVERAGE(O87:O96)</f>
+        <v>3.709238000000001E-3</v>
+      </c>
+      <c r="T29" s="3">
+        <f>AVERAGE(P87:P96)</f>
+        <v>1.1763466E-3</v>
       </c>
       <c r="U29" s="8"/>
     </row>
@@ -3642,14 +3918,8 @@
       <c r="R30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S30" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T30" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
       <c r="U30" s="8"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -3686,14 +3956,8 @@
       <c r="R31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S31" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T31" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
       <c r="U31" s="8"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
@@ -3736,13 +4000,13 @@
       <c r="R32" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S32" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T32" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="S32" s="3">
+        <f>AVERAGE(O53:O62)</f>
+        <v>2.4759039999999998E-4</v>
+      </c>
+      <c r="T32" s="3">
+        <f>AVERAGE(P53:P62)</f>
+        <v>1.453418E-4</v>
       </c>
       <c r="U32" s="8"/>
     </row>
@@ -3786,13 +4050,13 @@
       <c r="R33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S33" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T33" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="S33" s="3">
+        <f>AVERAGE(O75:O84)</f>
+        <v>1.4926590000000001E-3</v>
+      </c>
+      <c r="T33" s="3">
+        <f>AVERAGE(P75:P84)</f>
+        <v>4.8513340000000003E-4</v>
       </c>
       <c r="U33" s="8"/>
     </row>
@@ -3822,13 +4086,13 @@
       <c r="R34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="S34" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="S34" s="3">
+        <f>AVERAGE(O99:O108)</f>
+        <v>3.709412E-3</v>
+      </c>
+      <c r="T34" s="3">
+        <f>AVERAGE(P99:P108)</f>
+        <v>1.2596840000000001E-3</v>
       </c>
       <c r="U34" s="8"/>
     </row>
@@ -3866,14 +4130,8 @@
       <c r="R35" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S35" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T35" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
       <c r="U35" s="8"/>
     </row>
     <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3911,14 +4169,8 @@
       <c r="R36" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S36" s="10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T36" s="10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
       <c r="U36" s="11"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.35">
@@ -4024,6 +4276,9 @@
       <c r="K40" s="1">
         <v>6.7000000000000002E-5</v>
       </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
@@ -4050,6 +4305,15 @@
       <c r="K41" s="1">
         <v>6.7000000000000002E-5</v>
       </c>
+      <c r="N41" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
@@ -4076,6 +4340,12 @@
       <c r="K42" s="1">
         <v>6.7000000000000002E-5</v>
       </c>
+      <c r="O42">
+        <v>2.5295999999999999E-4</v>
+      </c>
+      <c r="P42">
+        <v>2.6253399999999998E-4</v>
+      </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
@@ -4102,6 +4372,12 @@
       <c r="K43" s="1">
         <v>6.7000000000000002E-5</v>
       </c>
+      <c r="O43">
+        <v>2.5043199999999998E-4</v>
+      </c>
+      <c r="P43">
+        <v>2.12158E-4</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
@@ -4127,6 +4403,12 @@
       </c>
       <c r="K44" s="1">
         <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="O44">
+        <v>2.5011199999999998E-4</v>
+      </c>
+      <c r="P44">
+        <v>2.39437E-4</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.35">
@@ -4140,6 +4422,12 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
+      <c r="O45">
+        <v>2.50144E-4</v>
+      </c>
+      <c r="P45">
+        <v>2.4155499999999999E-4</v>
+      </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
@@ -4165,6 +4453,12 @@
       </c>
       <c r="K46">
         <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="O46">
+        <v>2.5500799999999998E-4</v>
+      </c>
+      <c r="P46" s="1">
+        <v>6.3736000000000001E-5</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.35">
@@ -4192,6 +4486,12 @@
       <c r="K47">
         <v>1.0900000000000001E-4</v>
       </c>
+      <c r="O47">
+        <v>2.4963200000000001E-4</v>
+      </c>
+      <c r="P47" s="1">
+        <v>9.9221000000000004E-5</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
@@ -4218,8 +4518,14 @@
       <c r="K48" s="1">
         <v>6.8999999999999997E-5</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O48">
+        <v>2.4947199999999999E-4</v>
+      </c>
+      <c r="P48" s="1">
+        <v>7.3362000000000007E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4244,8 +4550,15 @@
       <c r="K49" s="1">
         <v>6.7000000000000002E-5</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N49" s="1"/>
+      <c r="O49">
+        <v>2.4915199999999999E-4</v>
+      </c>
+      <c r="P49" s="1">
+        <v>7.6940000000000005E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>4</v>
       </c>
@@ -4270,8 +4583,15 @@
       <c r="K50" s="1">
         <v>6.7000000000000002E-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N50" s="1"/>
+      <c r="O50">
+        <v>2.47648E-4</v>
+      </c>
+      <c r="P50">
+        <v>2.1268599999999999E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>5</v>
       </c>
@@ -4296,8 +4616,14 @@
       <c r="K51" s="1">
         <v>6.7000000000000002E-5</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O51">
+        <v>2.4867200000000002E-4</v>
+      </c>
+      <c r="P51">
+        <v>1.1210299999999999E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>6</v>
       </c>
@@ -4322,8 +4648,10 @@
       <c r="K52" s="1">
         <v>8.3999999999999995E-5</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>7</v>
       </c>
@@ -4348,8 +4676,15 @@
       <c r="K53" s="1">
         <v>6.7999999999999999E-5</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N53" s="1"/>
+      <c r="O53">
+        <v>2.4704000000000002E-4</v>
+      </c>
+      <c r="P53" s="1">
+        <v>7.5149999999999997E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>8</v>
       </c>
@@ -4374,8 +4709,15 @@
       <c r="K54" s="1">
         <v>6.7000000000000002E-5</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N54" s="1"/>
+      <c r="O54">
+        <v>2.4681600000000002E-4</v>
+      </c>
+      <c r="P54">
+        <v>1.2878299999999999E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>9</v>
       </c>
@@ -4400,8 +4742,14 @@
       <c r="K55" s="1">
         <v>6.7999999999999999E-5</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O55">
+        <v>2.4790400000000002E-4</v>
+      </c>
+      <c r="P55" s="1">
+        <v>5.6252000000000003E-5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -4412,8 +4760,15 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N56" s="1"/>
+      <c r="O56">
+        <v>2.4761599999999998E-4</v>
+      </c>
+      <c r="P56">
+        <v>1.76465E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -4424,8 +4779,14 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O57">
+        <v>2.46784E-4</v>
+      </c>
+      <c r="P57" s="1">
+        <v>6.6093000000000006E-5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -4450,8 +4811,14 @@
       <c r="L58">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O58">
+        <v>2.4656E-4</v>
+      </c>
+      <c r="P58">
+        <v>1.81585E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0</v>
       </c>
@@ -4476,8 +4843,15 @@
       <c r="K59">
         <v>1.6559999999999999E-3</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N59" s="1"/>
+      <c r="O59">
+        <v>2.4643199999999999E-4</v>
+      </c>
+      <c r="P59" s="1">
+        <v>7.6797000000000003E-5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>1</v>
       </c>
@@ -4502,8 +4876,15 @@
       <c r="K60">
         <v>1.6249999999999999E-3</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N60" s="1"/>
+      <c r="O60">
+        <v>2.5315199999999998E-4</v>
+      </c>
+      <c r="P60" s="1">
+        <v>6.4686999999999999E-5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2</v>
       </c>
@@ -4528,8 +4909,15 @@
       <c r="K61">
         <v>1.614E-3</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N61" s="1"/>
+      <c r="O61">
+        <v>2.4656E-4</v>
+      </c>
+      <c r="P61" s="1">
+        <v>7.2673E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4554,8 +4942,15 @@
       <c r="K62">
         <v>1.6260000000000001E-3</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N62" s="1"/>
+      <c r="O62">
+        <v>2.4704000000000002E-4</v>
+      </c>
+      <c r="P62">
+        <v>5.5493299999999997E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>4</v>
       </c>
@@ -4580,8 +4975,10 @@
       <c r="K63">
         <v>1.622E-3</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>5</v>
       </c>
@@ -4606,8 +5003,14 @@
       <c r="K64">
         <v>1.6169999999999999E-3</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O64">
+        <v>1.4962899999999999E-3</v>
+      </c>
+      <c r="P64">
+        <v>3.4994699999999998E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>6</v>
       </c>
@@ -4632,8 +5035,14 @@
       <c r="K65">
         <v>1.6199999999999999E-3</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O65">
+        <v>1.48675E-3</v>
+      </c>
+      <c r="P65">
+        <v>4.7721100000000001E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>7</v>
       </c>
@@ -4658,8 +5067,14 @@
       <c r="K66">
         <v>1.6119999999999999E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O66">
+        <v>1.4962899999999999E-3</v>
+      </c>
+      <c r="P66">
+        <v>4.5624899999999999E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>8</v>
       </c>
@@ -4684,8 +5099,14 @@
       <c r="K67">
         <v>1.619E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O67">
+        <v>1.48941E-3</v>
+      </c>
+      <c r="P67">
+        <v>4.8320399999999999E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>9</v>
       </c>
@@ -4710,8 +5131,14 @@
       <c r="K68">
         <v>1.622E-3</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O68">
+        <v>1.5011200000000001E-3</v>
+      </c>
+      <c r="P68">
+        <v>4.6884900000000002E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -4722,8 +5149,14 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O69">
+        <v>1.4926399999999999E-3</v>
+      </c>
+      <c r="P69">
+        <v>4.5719000000000001E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0</v>
       </c>
@@ -4748,8 +5181,14 @@
       <c r="K70">
         <v>3.0430000000000001E-3</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O70">
+        <v>1.49197E-3</v>
+      </c>
+      <c r="P70">
+        <v>4.9425499999999998E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>1</v>
       </c>
@@ -4774,8 +5213,14 @@
       <c r="K71">
         <v>3.0100000000000001E-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O71">
+        <v>1.49274E-3</v>
+      </c>
+      <c r="P71">
+        <v>6.0181899999999997E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2</v>
       </c>
@@ -4800,8 +5245,14 @@
       <c r="K72">
         <v>3.0209999999999998E-3</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O72">
+        <v>1.4850900000000001E-3</v>
+      </c>
+      <c r="P72">
+        <v>4.0374900000000001E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>3</v>
       </c>
@@ -4826,8 +5277,14 @@
       <c r="K73">
         <v>3.029E-3</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O73">
+        <v>1.4891800000000001E-3</v>
+      </c>
+      <c r="P73">
+        <v>3.3890299999999999E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>4</v>
       </c>
@@ -4852,8 +5309,10 @@
       <c r="K74">
         <v>2.9989999999999999E-3</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>5</v>
       </c>
@@ -4878,8 +5337,14 @@
       <c r="K75">
         <v>3.0010000000000002E-3</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O75">
+        <v>1.4951700000000001E-3</v>
+      </c>
+      <c r="P75">
+        <v>4.39445E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>6</v>
       </c>
@@ -4904,8 +5369,14 @@
       <c r="K76">
         <v>3.0109999999999998E-3</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O76">
+        <v>1.48963E-3</v>
+      </c>
+      <c r="P76">
+        <v>3.8355600000000001E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>7</v>
       </c>
@@ -4930,8 +5401,14 @@
       <c r="K77">
         <v>3.0079999999999998E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O77">
+        <v>1.49325E-3</v>
+      </c>
+      <c r="P77">
+        <v>5.0794399999999997E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>8</v>
       </c>
@@ -4956,8 +5433,14 @@
       <c r="K78">
         <v>3.0010000000000002E-3</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O78">
+        <v>1.4913000000000001E-3</v>
+      </c>
+      <c r="P78">
+        <v>4.5533500000000002E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>9</v>
       </c>
@@ -4982,8 +5465,14 @@
       <c r="K79">
         <v>3.0109999999999998E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O79">
+        <v>1.4951999999999999E-3</v>
+      </c>
+      <c r="P79">
+        <v>4.6736100000000001E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -4994,8 +5483,14 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O80">
+        <v>1.4954199999999999E-3</v>
+      </c>
+      <c r="P80">
+        <v>5.9355499999999995E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0</v>
       </c>
@@ -5020,8 +5515,14 @@
       <c r="K81">
         <v>9.8556000000000005E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O81">
+        <v>1.4905000000000001E-3</v>
+      </c>
+      <c r="P81">
+        <v>5.3095699999999998E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>1</v>
       </c>
@@ -5046,8 +5547,14 @@
       <c r="K82">
         <v>9.8662E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O82">
+        <v>1.4915499999999999E-3</v>
+      </c>
+      <c r="P82">
+        <v>4.5596299999999998E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2</v>
       </c>
@@ -5072,8 +5579,14 @@
       <c r="K83">
         <v>9.8681000000000005E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O83">
+        <v>1.4911E-3</v>
+      </c>
+      <c r="P83">
+        <v>5.7711199999999996E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>3</v>
       </c>
@@ -5098,8 +5611,14 @@
       <c r="K84">
         <v>9.8627000000000006E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O84">
+        <v>1.49347E-3</v>
+      </c>
+      <c r="P84">
+        <v>4.40106E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>4</v>
       </c>
@@ -5124,8 +5643,10 @@
       <c r="K85">
         <v>9.8615999999999995E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>5</v>
       </c>
@@ -5150,8 +5671,10 @@
       <c r="K86">
         <v>9.8684999999999995E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>6</v>
       </c>
@@ -5176,8 +5699,15 @@
       <c r="K87">
         <v>9.8799999999999999E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N87" s="2"/>
+      <c r="O87" s="2">
+        <v>3.7252499999999998E-3</v>
+      </c>
+      <c r="P87">
+        <v>1.13978E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>7</v>
       </c>
@@ -5202,8 +5732,15 @@
       <c r="K88">
         <v>9.8663000000000001E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N88" s="2"/>
+      <c r="O88" s="2">
+        <v>3.69558E-3</v>
+      </c>
+      <c r="P88">
+        <v>1.0319000000000001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>8</v>
       </c>
@@ -5228,8 +5765,14 @@
       <c r="K89">
         <v>9.8598000000000005E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O89">
+        <v>3.6882600000000001E-3</v>
+      </c>
+      <c r="P89">
+        <v>1.46594E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9</v>
       </c>
@@ -5254,8 +5797,14 @@
       <c r="K90">
         <v>9.8719000000000001E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O90">
+        <v>3.71616E-3</v>
+      </c>
+      <c r="P90">
+        <v>9.9454399999999998E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -5266,8 +5815,14 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O91">
+        <v>3.7157399999999999E-3</v>
+      </c>
+      <c r="P91">
+        <v>1.04981E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0</v>
       </c>
@@ -5292,8 +5847,14 @@
       <c r="K92">
         <v>1.26E-4</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O92">
+        <v>3.6945900000000002E-3</v>
+      </c>
+      <c r="P92">
+        <v>1.4200700000000001E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1</v>
       </c>
@@ -5318,8 +5879,14 @@
       <c r="K93">
         <v>2.52E-4</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O93">
+        <v>3.7017899999999999E-3</v>
+      </c>
+      <c r="P93">
+        <v>1.0466099999999999E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2</v>
       </c>
@@ -5344,8 +5911,14 @@
       <c r="K94" s="1">
         <v>9.7999999999999997E-5</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O94">
+        <v>3.7289900000000002E-3</v>
+      </c>
+      <c r="P94">
+        <v>9.8059199999999997E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>3</v>
       </c>
@@ -5370,8 +5943,14 @@
       <c r="K95">
         <v>1.02E-4</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O95">
+        <v>3.6742400000000001E-3</v>
+      </c>
+      <c r="P95">
+        <v>1.0863800000000001E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>4</v>
       </c>
@@ -5396,8 +5975,15 @@
       <c r="K96" s="1">
         <v>9.2999999999999997E-5</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N96" s="1"/>
+      <c r="O96">
+        <v>3.7517800000000001E-3</v>
+      </c>
+      <c r="P96">
+        <v>1.54784E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5</v>
       </c>
@@ -5422,8 +6008,9 @@
       <c r="K97" s="1">
         <v>9.3999999999999994E-5</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>6</v>
       </c>
@@ -5449,7 +6036,7 @@
         <v>9.7999999999999997E-5</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>7</v>
       </c>
@@ -5474,8 +6061,14 @@
       <c r="K99" s="1">
         <v>9.0000000000000006E-5</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O99">
+        <v>3.7178900000000002E-3</v>
+      </c>
+      <c r="P99">
+        <v>1.17147E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>8</v>
       </c>
@@ -5500,8 +6093,15 @@
       <c r="K100" s="1">
         <v>9.3999999999999994E-5</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N100" s="1"/>
+      <c r="O100">
+        <v>3.70528E-3</v>
+      </c>
+      <c r="P100">
+        <v>1.4834099999999999E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>9</v>
       </c>
@@ -5526,8 +6126,15 @@
       <c r="K101" s="1">
         <v>9.2E-5</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N101" s="1"/>
+      <c r="O101">
+        <v>3.69827E-3</v>
+      </c>
+      <c r="P101">
+        <v>1.4245600000000001E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -5538,8 +6145,14 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O102">
+        <v>3.72259E-3</v>
+      </c>
+      <c r="P102">
+        <v>1.03499E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0</v>
       </c>
@@ -5564,8 +6177,15 @@
       <c r="K103">
         <v>1.73E-4</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N103" s="1"/>
+      <c r="O103">
+        <v>3.7324200000000002E-3</v>
+      </c>
+      <c r="P103">
+        <v>1.5083200000000001E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1</v>
       </c>
@@ -5590,8 +6210,14 @@
       <c r="K104">
         <v>1.2E-4</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O104">
+        <v>3.6928E-3</v>
+      </c>
+      <c r="P104">
+        <v>1.0022200000000001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2</v>
       </c>
@@ -5616,8 +6242,14 @@
       <c r="K105" s="1">
         <v>9.5000000000000005E-5</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="O105">
+        <v>3.7046100000000001E-3</v>
+      </c>
+      <c r="P105">
+        <v>1.4526000000000001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>3</v>
       </c>
@@ -5642,8 +6274,15 @@
       <c r="K106" s="1">
         <v>9.2999999999999997E-5</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N106" s="1"/>
+      <c r="O106">
+        <v>3.70221E-3</v>
+      </c>
+      <c r="P106">
+        <v>1.0249300000000001E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>4</v>
       </c>
@@ -5668,8 +6307,15 @@
       <c r="K107" s="1">
         <v>9.2999999999999997E-5</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N107" s="1"/>
+      <c r="O107">
+        <v>3.6857600000000002E-3</v>
+      </c>
+      <c r="P107">
+        <v>1.46335E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>5</v>
       </c>
@@ -5694,8 +6340,15 @@
       <c r="K108" s="1">
         <v>8.7999999999999998E-5</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N108" s="1"/>
+      <c r="O108">
+        <v>3.7322900000000001E-3</v>
+      </c>
+      <c r="P108">
+        <v>1.0309900000000001E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>6</v>
       </c>
@@ -5720,8 +6373,9 @@
       <c r="K109">
         <v>1.1400000000000001E-4</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>7</v>
       </c>
@@ -5747,7 +6401,7 @@
         <v>1.03E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>8</v>
       </c>
@@ -5773,7 +6427,7 @@
         <v>8.8999999999999995E-5</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>9</v>
       </c>

--- a/praca/Wyniki.xlsx
+++ b/praca/Wyniki.xlsx
@@ -555,11 +555,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="153064960"/>
-        <c:axId val="153066880"/>
+        <c:axId val="62906368"/>
+        <c:axId val="62908288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="153064960"/>
+        <c:axId val="62906368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,7 +592,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153066880"/>
+        <c:crossAx val="62908288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -600,7 +600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="153066880"/>
+        <c:axId val="62908288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153064960"/>
+        <c:crossAx val="62906368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -850,11 +850,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169300736"/>
-        <c:axId val="169302656"/>
+        <c:axId val="62942592"/>
+        <c:axId val="62948864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169300736"/>
+        <c:axId val="62942592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +887,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169302656"/>
+        <c:crossAx val="62948864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169302656"/>
+        <c:axId val="62948864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169300736"/>
+        <c:crossAx val="62942592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,11 +1145,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169345024"/>
-        <c:axId val="169346944"/>
+        <c:axId val="62974592"/>
+        <c:axId val="62976768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169345024"/>
+        <c:axId val="62974592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1178,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169346944"/>
+        <c:crossAx val="62976768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1186,7 +1186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169346944"/>
+        <c:axId val="62976768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,7 +1217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169345024"/>
+        <c:crossAx val="62974592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1401,11 +1401,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169364480"/>
-        <c:axId val="169383040"/>
+        <c:axId val="63010304"/>
+        <c:axId val="63012224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169364480"/>
+        <c:axId val="63010304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1437,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169383040"/>
+        <c:crossAx val="63012224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1445,7 +1445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169383040"/>
+        <c:axId val="63012224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1480,7 +1480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169364480"/>
+        <c:crossAx val="63010304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1671,11 +1671,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169816064"/>
-        <c:axId val="169817600"/>
+        <c:axId val="63054208"/>
+        <c:axId val="63056128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169816064"/>
+        <c:axId val="63054208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1704,7 +1704,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169817600"/>
+        <c:crossAx val="63056128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1712,7 +1712,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169817600"/>
+        <c:axId val="63056128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1743,7 +1743,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169816064"/>
+        <c:crossAx val="63054208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1927,11 +1927,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169837312"/>
-        <c:axId val="169838848"/>
+        <c:axId val="63102336"/>
+        <c:axId val="63104512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169837312"/>
+        <c:axId val="63102336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,7 +1960,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169838848"/>
+        <c:crossAx val="63104512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1968,7 +1968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169838848"/>
+        <c:axId val="63104512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169837312"/>
+        <c:crossAx val="63102336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2211,27 +2211,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cuda_vienna_0.1_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cuda_vienna_0.01" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel_vienna_0.1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel_wal_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cuda_wal_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cuda_vienna_0.1_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cuda_vienna_0.01" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel_vienna_0.1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel_vienna_0.001" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="intel_vienna_0.001" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="cuda_wal_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2523,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
